--- a/017 - Análise dos Eventos Para Cada Cenário.xlsx
+++ b/017 - Análise dos Eventos Para Cada Cenário.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geremias\Documents\Faculdade\3° Semestre - Engenharia da Computação\Engenharia de Requisitos\Parte 2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15786487-14CB-4C53-BECF-09BD317C6A3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>Externo</t>
   </si>
@@ -103,12 +112,6 @@
     <t>Tratar Instalação do Produto</t>
   </si>
   <si>
-    <t>Cliente agenda entrega e instalação do Espelho</t>
-  </si>
-  <si>
-    <t>Tecnico Entrega e instala o Espelho</t>
-  </si>
-  <si>
     <t>x(9)</t>
   </si>
   <si>
@@ -121,36 +124,65 @@
     <t>Tecnico realiza a manutenção do Espelho</t>
   </si>
   <si>
-    <t>x(11)</t>
+    <t>Vendedor envia agenda disponivel</t>
+  </si>
+  <si>
+    <t>Cliente agenda entrega e instalação</t>
+  </si>
+  <si>
+    <t>x(10)</t>
+  </si>
+  <si>
+    <t>Técnico envia agenda disponivel</t>
+  </si>
+  <si>
+    <t>Técnico Entrega e instala o Espelho</t>
+  </si>
+  <si>
+    <t>Cliente agenda manutenção</t>
+  </si>
+  <si>
+    <t>x(12)</t>
+  </si>
+  <si>
+    <t>x(13)</t>
+  </si>
+  <si>
+    <t>x(14)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -196,41 +228,28 @@
     </fill>
   </fills>
   <borders count="8">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -240,6 +259,18 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -251,6 +282,10 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -259,9 +294,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -270,102 +307,125 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="90" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="90" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+  <cellXfs count="30">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -555,319 +615,378 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.29"/>
-    <col customWidth="1" min="2" max="2" width="5.0"/>
-    <col customWidth="1" min="3" max="3" width="5.29"/>
-    <col customWidth="1" min="4" max="4" width="54.0"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="36.0" customHeight="1">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" ht="36.0" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="15" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" ht="36.0" customHeight="1">
-      <c r="A5" s="16" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" ht="36.0" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" ht="36.0" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="20">
-        <v>5.0</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="12">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" ht="36.0" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="21" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23"/>
+      <c r="B8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="20">
-        <v>6.0</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="12">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" ht="36.0" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="20">
-        <v>7.0</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="12">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="19" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" ht="36.0" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="20">
-        <v>8.0</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="12">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="19" t="s">
+      <c r="E10" s="13"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="24"/>
-    </row>
-    <row r="11" ht="36.0" customHeight="1">
-      <c r="A11" s="25" t="s">
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="20">
-        <v>9.0</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="12">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="28"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" ht="36.0" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="20">
-        <v>10.0</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="12">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="19" t="s">
+      <c r="B14" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="12">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" ht="36.0" customHeight="1">
-      <c r="A13" s="26" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="29"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="12">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="29"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="12">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="12">
+        <v>15</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="20">
-        <v>11.0</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="27"/>
-    </row>
-    <row r="14" ht="36.0" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="20">
-        <v>12.0</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>